--- a/getStarted.xlsx
+++ b/getStarted.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\web\extensions\mv2\chrome\getstarted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FE5B7C-B1A9-43C2-8244-E43FD652F840}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D2290-D088-4386-861C-D9D1640BA527}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="324" yWindow="1584" windowWidth="11028" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="chrome.declarativeContent" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>https://developer.chrome.com/docs/extensions/mv2/getstarted/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +120,158 @@
   </si>
   <si>
     <t>通过 declarativeContent ，把 声明规则 添加到 background script 中：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://developer.chrome.com/docs/extensions/reference/declarativeContent/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome.declatativeContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要权限来读取页面内容，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就可以根据页面的内容来采取 action 的 API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据页面的 URL 和 页面内容所匹配的 CSS 选择器，来展示插件的 page action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需 主机权限 或 注入content script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果需要在用户点击了 page action 之后，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要能够与页面交互的话，需要 activeTab 权限。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么时候使用 pageAction API ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当 page action 出现的时候，需要更精确的控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要根据当前 tab 来改变 page action 的外观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>declarative API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让你在 onPageChanged 事件中，注册规则用的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>declarative API 的特点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当 PageStateMatcher 符合时，可以触发一个动作：ShowPageAction 或 SetIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageStateMatcher怎么才算满足条件？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当且仅当所有条件都满足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件和 action 都是怎么定义的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是 new 出来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new chrome.declarativeContent.PageStateMatcher(…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new chrome.declarativeContent.ShowPageAction()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome.declarativeContent.onPageChanged 的 onPageChanged 是什么意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实这个 onPageChanged 是指那些声明的规则的触发时机是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面变化时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应到 addRules 和 removeRules 都是对应这个类型的规则的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么要先移除规则，再添加规则？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为所添加的规则，即使在浏览器重启后，也会一直保留。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即使你把插件卸载了，依旧会保留规则。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么要批量 注册 或 注销规则？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为每次此类操作，都会重建内部数据结构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个重建计算量大，不过使用了一个更快的匹配算法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么这样不需要任何安装时权限？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把以上提到的规则 和 activeTab 权限结合起来，来创建插件，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以邀请用户在相关页面上，邀请用户来点击 page action，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进而当用户点击 page action 时，可以在那些页面上运行。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -658,4 +811,210 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2D276B-B953-4A88-936B-A7A101B94FB4}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{89E3E369-6D69-4BDC-ADDD-570B95336636}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/getStarted.xlsx
+++ b/getStarted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\web\extensions\mv2\chrome\getstarted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D2290-D088-4386-861C-D9D1640BA527}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C42DC11-7447-4477-8112-9D76B2A61305}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="1584" windowWidth="11028" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>https://developer.chrome.com/docs/extensions/mv2/getstarted/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,30 @@
   </si>
   <si>
     <t>进而当用户点击 page action 时，可以在那些页面上运行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageStateMatcher.css 只能用什么类型的 CSS 选择器？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能用 复合选择器 ，不能用复杂 选择器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么情况下，即使DOM里面有这个元素，CSS匹配也会失败？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当元素 或 元素的父级元素为 display: none 时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片的路径是相对什么的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manifest 的位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,6 +408,99 @@
         <a:xfrm>
           <a:off x="609600" y="1752600"/>
           <a:ext cx="4733333" cy="4085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>580352</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>18640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146C32B6-2E4A-4670-B09E-8A659F8BFA72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9772650"/>
+          <a:ext cx="5380952" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>465809</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>66214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FD3A65-C210-4D13-94A7-540DAACDD3C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="14297025"/>
+          <a:ext cx="7323809" cy="3685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -664,69 +781,69 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -734,27 +851,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D42" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -762,42 +879,42 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D48" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D49" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D50" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D51" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>23</v>
       </c>
@@ -815,65 +932,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2D276B-B953-4A88-936B-A7A101B94FB4}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -881,7 +998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>36</v>
       </c>
@@ -889,124 +1006,154 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1016,5 +1163,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/getStarted.xlsx
+++ b/getStarted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\web\extensions\mv2\chrome\getstarted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C42DC11-7447-4477-8112-9D76B2A61305}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EFCBD2-41BB-41E5-8183-7E120062E37B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>https://developer.chrome.com/docs/extensions/mv2/getstarted/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,46 @@
   </si>
   <si>
     <t>manifest 的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何 debug page action 中所加载的 js 代码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右击 page action ，然后点检查。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们可以看到，光插件就有2个debug环境了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission: activeTab 有什么用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以允许 extension 访问页面的内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome.tabs.executeScript() 方法得以执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,6 +448,50 @@
         <a:xfrm>
           <a:off x="609600" y="1752600"/>
           <a:ext cx="4733333" cy="4085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371171</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149B14BF-181C-40D5-8F0C-5382B55A5F53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10496550"/>
+          <a:ext cx="2428571" cy="1247619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -775,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -917,6 +1001,56 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2D276B-B953-4A88-936B-A7A101B94FB4}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>

--- a/getStarted.xlsx
+++ b/getStarted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\web\extensions\mv2\chrome\getstarted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EFCBD2-41BB-41E5-8183-7E120062E37B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECFCDC9-924D-4FC5-BD56-458898912BBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>https://developer.chrome.com/docs/extensions/mv2/getstarted/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,14 @@
   </si>
   <si>
     <t>chrome.tabs.executeScript() 方法得以执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这行代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改了什么 style ？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,6 +500,94 @@
         <a:xfrm>
           <a:off x="685800" y="10496550"/>
           <a:ext cx="2428571" cy="1247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361219</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>18799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E262F4-6E47-4B66-8C1E-C5D53D22C2E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13935075"/>
+          <a:ext cx="5847619" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>637667</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>28481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C76B32F-1048-47AD-9EE5-96D827D32588}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="16287750"/>
+          <a:ext cx="4066667" cy="752381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -859,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1051,6 +1147,16 @@
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/getStarted.xlsx
+++ b/getStarted.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\web\extensions\mv2\chrome\getstarted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECFCDC9-924D-4FC5-BD56-458898912BBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD175069-3A0F-4FAF-A927-8B4C8FF7D8B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="getStarted" sheetId="1" r:id="rId1"/>
     <sheet name="chrome.declarativeContent" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>https://developer.chrome.com/docs/extensions/mv2/getstarted/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,30 @@
   </si>
   <si>
     <t>改了什么 style ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗留问题：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文中是通过这样的方式，来打开插件的配置页的：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但这样的配置方式，对于用户来说，显然很繁琐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存在更好的方式来在用户和插件的交互过程中，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来打开配置页呢？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,6 +612,138 @@
         <a:xfrm>
           <a:off x="685800" y="16287750"/>
           <a:ext cx="4066667" cy="752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685286</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>47348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789820F7-9495-4919-AB0D-36FE2746757D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="17916525"/>
+          <a:ext cx="4114286" cy="2219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>656286</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>161724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39D9A7F-D980-4E30-88D6-79C786A16C22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="20450175"/>
+          <a:ext cx="7514286" cy="1609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>475333</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>37846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D80293-0AE1-41C4-BF17-6EC42C006075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="22440900"/>
+          <a:ext cx="7333333" cy="2028571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -955,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1157,6 +1313,49 @@
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
